--- a/Replication Package/User Study/SPRINT_User_Study_Responses.xlsx
+++ b/Replication Package/User Study/SPRINT_User_Study_Responses.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprint repo\sprint_issue_report_assistant_tool\Replication Package\User Study\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SPRINT_user_study_Final - test " sheetId="1" r:id="rId4"/>
+    <sheet name="SPRINT_user_study_Final - test " sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -193,9 +201,6 @@
     <t>User Language</t>
   </si>
   <si>
-    <t>Enter your Name</t>
-  </si>
-  <si>
     <t>After inspecting SPRINT’s suggestions, do you think SPRINT correctly suggested similar issues for the created issues?</t>
   </si>
   <si>
@@ -425,9 +430,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>Mushfiqur Rahman</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -496,9 +498,6 @@
     <t>R_44CSFrBhOE6H4jP</t>
   </si>
   <si>
-    <t>Md. Zakir Hasan</t>
-  </si>
-  <si>
     <t>For the first issue, the tool predicted all the 3 duplicate issues correctly. However, it predicted another issue that was not duplicate to the input.
 For the second issue, it predicted 2 duplicates perfectly.</t>
   </si>
@@ -543,9 +542,6 @@
     <t>R_4L8v8csWnXnHbNf</t>
   </si>
   <si>
-    <t>Md. Abdullah al Hadi</t>
-  </si>
-  <si>
     <t>Showed four duplicates for the first issue where three were correct.
 Showed two duplicates for the second issue, both were correct</t>
   </si>
@@ -586,9 +582,6 @@
     <t>R_4t6JxtyNV6ctJx7</t>
   </si>
   <si>
-    <t>Lutfar Rahman Alif</t>
-  </si>
-  <si>
     <t>Successfully detects similar issues and helps finding solution</t>
   </si>
   <si>
@@ -613,9 +606,6 @@
     <t>R_4f9boRsNJCNrVM8</t>
   </si>
   <si>
-    <t>Prodipta Sen Amartya</t>
-  </si>
-  <si>
     <t>I found the issues related to my problem. The tool works mostly fine for me.</t>
   </si>
   <si>
@@ -629,29 +619,49 @@
   </si>
   <si>
     <t>Somewhat agree</t>
+  </si>
+  <si>
+    <t>Participant ID</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -662,48 +672,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -893,28 +912,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="18.0" ySplit="2.0" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S1" sqref="S1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="S3" sqref="S3" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="18" ySplit="2" topLeftCell="S27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col hidden="1" min="1" max="17" width="12.63"/>
+    <col min="1" max="17" width="12.5703125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:48" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1078,7 @@
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:48" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1109,264 +1131,264 @@
         <v>59</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3" spans="1:48" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:48" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45625.060949074075</v>
       </c>
       <c r="B4" s="5">
-        <v>45625.08702546296</v>
+        <v>45625.087025462963</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
-        <v>2253.0</v>
+        <v>2253</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>45625.08703703704</v>
+        <v>45625.087037037039</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1376,101 +1398,101 @@
         <v>23.7272</v>
       </c>
       <c r="O4" s="1">
-        <v>90.4093</v>
+        <v>90.409300000000002</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AS4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AT4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:48" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45625.12903935185</v>
       </c>
@@ -1481,13 +1503,13 @@
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>1337.0</v>
+        <v>1337</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
@@ -1496,128 +1518,128 @@
         <v>45625.144537037035</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1">
-        <v>23.746</v>
+        <v>23.745999999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>90.382</v>
+        <v>90.382000000000005</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AS5" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AT5" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:48" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45625.247141203705</v>
       </c>
       <c r="B6" s="5">
-        <v>45625.26559027778</v>
+        <v>45625.265590277777</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>1594.0</v>
+        <v>1594</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
@@ -1626,111 +1648,111 @@
         <v>45625.265601851854</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="1">
-        <v>23.746</v>
+        <v>23.745999999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>90.382</v>
+        <v>90.382000000000005</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="AE6" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AN6" s="3"/>
       <c r="AO6" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AS6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AT6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:48" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>45625.34685185185</v>
+        <v>45625.346851851849</v>
       </c>
       <c r="B7" s="5">
         <v>45625.363171296296</v>
@@ -1739,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E7" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
-        <v>1409.0</v>
+        <v>1409</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>1</v>
@@ -1754,125 +1776,125 @@
         <v>45625.363171296296</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="1">
-        <v>23.7908</v>
+        <v>23.790800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>90.4109</v>
+        <v>90.410899999999998</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="T7" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AI7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="AL7" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AS7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AT7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:48" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45625.36959490741</v>
       </c>
       <c r="B8" s="5">
-        <v>45625.39275462963</v>
+        <v>45625.392754629633</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>45625.3927662037</v>
+        <v>45625.392766203702</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1882,89 +1904,89 @@
         <v>23.7272</v>
       </c>
       <c r="O8" s="1">
-        <v>90.4093</v>
+        <v>90.409300000000002</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF8" s="3"/>
       <c r="AG8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AH8" s="3"/>
       <c r="AI8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AS8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AT8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2014,7 +2036,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2065,6 +2087,6 @@
       <c r="AV10" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>